--- a/User/chanhee/Accuracy/result/final_test_accuracy.xlsx
+++ b/User/chanhee/Accuracy/result/final_test_accuracy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanhee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanhee/Desktop/BioDataLab/User/chanhee/Accuracy/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="1200" windowWidth="22900" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2073,6 +2073,80 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:G28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>